--- a/files/timetable.xlsx
+++ b/files/timetable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Понедельник" sheetId="7" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -646,7 +646,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="F3" s="7">
         <v>0.375</v>
@@ -655,7 +655,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="K3" s="7">
         <v>0.375</v>
@@ -848,7 +848,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -917,7 +917,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="F3" s="7">
         <v>0.375</v>
@@ -926,7 +926,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="K3" s="7">
         <v>0.375</v>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1185,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="F3" s="7">
         <v>0.375</v>
@@ -1194,7 +1194,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="K3" s="7">
         <v>0.375</v>
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1459,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="F3" s="7">
         <v>0.375</v>
@@ -1468,7 +1468,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="K3" s="7">
         <v>0.375</v>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1720,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="F3" s="7">
         <v>0.375</v>
@@ -1729,7 +1729,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="K3" s="7">
         <v>0.375</v>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1970,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="F3" s="7">
         <v>0.375</v>
@@ -1979,7 +1979,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7">
-        <v>0.29166666666666669</v>
+        <v>0.3125</v>
       </c>
       <c r="K3" s="7">
         <v>0.375</v>
